--- a/medicine/Mort/Morgue_du_quai_du_Marché-Neuf/Morgue_du_quai_du_Marché-Neuf.xlsx
+++ b/medicine/Mort/Morgue_du_quai_du_Marché-Neuf/Morgue_du_quai_du_Marché-Neuf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Morgue_du_quai_du_March%C3%A9-Neuf</t>
+          <t>Morgue_du_quai_du_Marché-Neuf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La morgue du quai du Marché-Neuf est l'ancienne morgue municipale de Paris entre 1804 et 1868.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Morgue_du_quai_du_March%C3%A9-Neuf</t>
+          <t>Morgue_du_quai_du_Marché-Neuf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle était située sur l'île de la Cité, quai du Marché-Neuf. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Morgue_du_quai_du_March%C3%A9-Neuf</t>
+          <t>Morgue_du_quai_du_Marché-Neuf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bâtiment servait auparavant de boucherie ou de corps de garde. Il remplace à partir de 1804 l'ancienne « morgue du Châtelet », qui était installée dans la prison du Grand Châtelet[1],[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâtiment servait auparavant de boucherie ou de corps de garde. Il remplace à partir de 1804 l'ancienne « morgue du Châtelet », qui était installée dans la prison du Grand Châtelet,. 
 La morgue constitue, à l'époque, une des sorties les plus en vogue de la capitale : les cadavres inconnus à identifier (notamment des victimes de noyades), étendus sur douze tables inclinées de marbre noir, y sont exposés au public pendant trois jours, dans une salle séparée du public par une vitre.
-Dans le cadre des travaux haussmanniens, décision est prise dans les années 1860 de détruire les bâtiments entourant le parvis Notre-Dame, notamment afin de construire l'actuelle préfecture de police[3]. À cette occasion, le quai du Marché-Neuf doit être élargi. En 1868, la nouvelle morgue du quai de l'Archevêché est ouverte et l'ancien bâtiment est démoli.
+Dans le cadre des travaux haussmanniens, décision est prise dans les années 1860 de détruire les bâtiments entourant le parvis Notre-Dame, notamment afin de construire l'actuelle préfecture de police. À cette occasion, le quai du Marché-Neuf doit être élargi. En 1868, la nouvelle morgue du quai de l'Archevêché est ouverte et l'ancien bâtiment est démoli.
 	Représentations d'époque
 			Louis-Alexandre Péron, Transport de nuit, au Gros-Caillou, des cadavres non reconnus à la morgue, après les journées de juillet 1830, quai du Marché-Neuf (huile sur toile, 1834, musée Carnavalet).
 			Jean Henry Marlet, La Morgue, gravure extraite des Tableaux de Paris (avant 1847).
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Morgue_du_quai_du_March%C3%A9-Neuf</t>
+          <t>Morgue_du_quai_du_Marché-Neuf</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« La mort en vitrine à la morgue à Paris au XIXe siècle (1804-1907) » [livre], sur openedition.org, Presses universitaires de Provence, 2005 (consulté le 26 mars 2021)</t>
         </is>
